--- a/testSelenium/bin/com/vincent/pageobject1/data/126MailLoginCase.xlsx
+++ b/testSelenium/bin/com/vincent/pageobject1/data/126MailLoginCase.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
